--- a/statistics/HistoricalDistanceData/historical_distance/Q1549050-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q1549050-en.xlsx
@@ -31,21 +31,21 @@
     <t>uri</t>
   </si>
   <si>
+    <t>A history of great British storms</t>
+  </si>
+  <si>
     <t>The Great Storm of 26 November 1703</t>
   </si>
   <si>
-    <t>A history of great British storms</t>
-  </si>
-  <si>
     <t>The Storm by Daniel Defoe</t>
   </si>
   <si>
+    <t>2008-03-10T09:32:27UTC</t>
+  </si>
+  <si>
     <t>2010-11-21T00:00:00UTC</t>
   </si>
   <si>
-    <t>2008-03-10T09:32:27UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -55,10 +55,10 @@
     <t>outside bucket range</t>
   </si>
   <si>
+    <t>https://www.theguardian.com/world/2008/mar/10/weather</t>
+  </si>
+  <si>
     <t>https://www.theguardian.com/news/2010/nov/22/weatherwatch-great-storm-1703-daniel-defoe</t>
-  </si>
-  <si>
-    <t>https://www.theguardian.com/world/2008/mar/10/weather</t>
   </si>
   <si>
     <t>http://www.gutenberg.org/ebooks/42234</t>
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>112454</v>
+        <v>111468</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>111468</v>
+        <v>112454</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
